--- a/Data/Transitions/19571974Translation.xlsx
+++ b/Data/Transitions/19571974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="677">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1721,6 +1721,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.4343183698022408, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910336, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
@@ -4503,7 +4506,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4536,7 +4539,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4547,7 +4550,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4558,7 +4561,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4580,7 +4583,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4624,7 +4627,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4690,7 +4693,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4734,7 +4737,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4745,7 +4748,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4767,7 +4770,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4844,7 +4847,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4888,7 +4891,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4910,7 +4913,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4954,7 +4957,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4965,7 +4968,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4976,7 +4979,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4987,7 +4990,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4998,7 +5001,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5130,7 +5133,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5141,7 +5144,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5174,7 +5177,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5185,7 +5188,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5196,7 +5199,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5273,7 +5276,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5284,7 +5287,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5317,7 +5320,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5339,7 +5342,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5350,7 +5353,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5361,7 +5364,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5394,7 +5397,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5427,7 +5430,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5438,7 +5441,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5471,7 +5474,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5493,7 +5496,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5504,7 +5507,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5526,7 +5529,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5548,7 +5551,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5570,7 +5573,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5625,7 +5628,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5658,7 +5661,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5746,7 +5749,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5757,7 +5760,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5790,7 +5793,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5812,7 +5815,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5878,7 +5881,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5900,7 +5903,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5911,7 +5914,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5933,7 +5936,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5988,7 +5991,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5999,7 +6002,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6065,7 +6068,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6076,7 +6079,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6087,7 +6090,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6098,7 +6101,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6109,7 +6112,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6142,7 +6145,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6164,7 +6167,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6186,7 +6189,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6197,7 +6200,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6208,7 +6211,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6230,7 +6233,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6241,7 +6244,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6252,7 +6255,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6285,7 +6288,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6318,7 +6321,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6362,7 +6365,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6373,7 +6376,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6406,7 +6409,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6428,7 +6431,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6461,7 +6464,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6505,7 +6508,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6736,7 +6739,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6780,7 +6783,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6791,7 +6794,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6824,7 +6827,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6835,7 +6838,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6846,7 +6849,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6857,7 +6860,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6868,7 +6871,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6890,7 +6893,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6934,7 +6937,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6956,7 +6959,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6978,7 +6981,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7000,7 +7003,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7055,7 +7058,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7110,7 +7113,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7121,7 +7124,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7132,7 +7135,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7187,7 +7190,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7198,7 +7201,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7209,7 +7212,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7220,7 +7223,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7231,7 +7234,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7242,7 +7245,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7264,7 +7267,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7286,7 +7289,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7363,7 +7366,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7396,7 +7399,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7429,7 +7432,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7462,7 +7465,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7495,7 +7498,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7517,7 +7520,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7539,7 +7542,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7561,7 +7564,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7572,7 +7575,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7594,7 +7597,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7605,7 +7608,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7704,7 +7707,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
